--- a/Tablet/Stories/Action5/Results.xlsx
+++ b/Tablet/Stories/Action5/Results.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Instagram\Tablet\Historias\Foto-Musica-Efecto\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ALARCOS\Desktop\InstagramEnergyConsumption\Tablet\Stories\Action5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{806267A9-5C51-453D-883E-3DAC34E0DACD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D16301A-BBBC-4518-967B-5642FC45A363}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabla de pruebas" sheetId="1" r:id="rId1"/>
-    <sheet name="Tabla total" sheetId="2" r:id="rId2"/>
+    <sheet name="Measurements table" sheetId="1" r:id="rId1"/>
+    <sheet name="Total table" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -248,9 +248,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -288,7 +288,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -394,7 +394,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -536,7 +536,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -548,16 +548,16 @@
   <sheetViews>
     <sheetView topLeftCell="A140" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -567,7 +567,7 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -575,7 +575,7 @@
         <v>82746</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -583,7 +583,7 @@
         <v>82.745999999999995</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -603,7 +603,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -623,7 +623,7 @@
         <v>0.96475</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -643,7 +643,7 @@
         <v>2.9509400000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
@@ -663,7 +663,7 @@
         <v>1.9861900000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
@@ -683,7 +683,7 @@
         <v>1.592865696969697</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>13</v>
       </c>
@@ -703,7 +703,7 @@
         <v>1.202175</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>14</v>
       </c>
@@ -723,7 +723,7 @@
         <v>1.8837899999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>15</v>
       </c>
@@ -743,7 +743,7 @@
         <v>0.68161499999999986</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>16</v>
       </c>
@@ -763,7 +763,7 @@
         <v>0.45602047953613994</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>17</v>
       </c>
@@ -783,7 +783,7 @@
         <v>0.20795467775637105</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>18</v>
       </c>
@@ -803,7 +803,7 @@
         <v>1.48882</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>19</v>
       </c>
@@ -823,7 +823,7 @@
         <v>1.5423242857142856</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>20</v>
       </c>
@@ -843,7 +843,7 @@
         <v>1.6854899999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>21</v>
       </c>
@@ -863,7 +863,7 @@
         <v>1.5337210882758801</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>22</v>
       </c>
@@ -883,7 +883,7 @@
         <v>0.30183000000000004</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>23</v>
       </c>
@@ -903,7 +903,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>24</v>
       </c>
@@ -913,7 +913,7 @@
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>1</v>
       </c>
@@ -921,7 +921,7 @@
         <v>79724</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>2</v>
       </c>
@@ -929,7 +929,7 @@
         <v>79.724000000000004</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>3</v>
       </c>
@@ -949,7 +949,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>9</v>
       </c>
@@ -969,7 +969,7 @@
         <v>1.0292300000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>10</v>
       </c>
@@ -989,7 +989,7 @@
         <v>3.1621899999999998</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>11</v>
       </c>
@@ -1009,7 +1009,7 @@
         <v>2.1329599999999997</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>12</v>
       </c>
@@ -1029,7 +1029,7 @@
         <v>1.7147569182389937</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>13</v>
       </c>
@@ -1049,7 +1049,7 @@
         <v>1.3616600000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>14</v>
       </c>
@@ -1069,7 +1069,7 @@
         <v>1.9222900000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>15</v>
       </c>
@@ -1089,7 +1089,7 @@
         <v>0.56062999999999996</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>16</v>
       </c>
@@ -1109,7 +1109,7 @@
         <v>0.47005545078085953</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>17</v>
       </c>
@@ -1129,7 +1129,7 @@
         <v>0.22095212680879706</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>18</v>
       </c>
@@ -1149,7 +1149,7 @@
         <v>1.6887700000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>19</v>
       </c>
@@ -1169,7 +1169,7 @@
         <v>1.6635193700787401</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>20</v>
       </c>
@@ -1189,7 +1189,7 @@
         <v>1.7950200000000003</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>21</v>
       </c>
@@ -1209,7 +1209,7 @@
         <v>1.6557231405170103</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>22</v>
       </c>
@@ -1229,7 +1229,7 @@
         <v>0.30563999999999991</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>23</v>
       </c>
@@ -1249,7 +1249,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>25</v>
       </c>
@@ -1259,7 +1259,7 @@
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>1</v>
       </c>
@@ -1267,7 +1267,7 @@
         <v>78707</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>2</v>
       </c>
@@ -1275,7 +1275,7 @@
         <v>78.706999999999994</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>3</v>
       </c>
@@ -1295,7 +1295,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>9</v>
       </c>
@@ -1315,7 +1315,7 @@
         <v>1.0622400000000001</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>10</v>
       </c>
@@ -1335,7 +1335,7 @@
         <v>3.2210399999999999</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>11</v>
       </c>
@@ -1355,7 +1355,7 @@
         <v>2.1587999999999998</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>12</v>
       </c>
@@ -1375,7 +1375,7 @@
         <v>1.7442326751592356</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>13</v>
       </c>
@@ -1395,7 +1395,7 @@
         <v>1.220175</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>14</v>
       </c>
@@ -1415,7 +1415,7 @@
         <v>2.18038</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>15</v>
       </c>
@@ -1435,7 +1435,7 @@
         <v>0.96020499999999998</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>16</v>
       </c>
@@ -1455,7 +1455,7 @@
         <v>0.55363233481183882</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>17</v>
       </c>
@@ -1475,7 +1475,7 @@
         <v>0.30650876214920797</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>18</v>
       </c>
@@ -1495,7 +1495,7 @@
         <v>1.61592</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>19</v>
       </c>
@@ -1515,7 +1515,7 @@
         <v>1.6952545669291337</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>20</v>
       </c>
@@ -1535,7 +1535,7 @@
         <v>1.8882399999999999</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>21</v>
       </c>
@@ -1555,7 +1555,7 @@
         <v>1.6617059247981589</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>22</v>
       </c>
@@ -1575,7 +1575,7 @@
         <v>0.44771000000000005</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>23</v>
       </c>
@@ -1595,7 +1595,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>26</v>
       </c>
@@ -1605,7 +1605,7 @@
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>1</v>
       </c>
@@ -1613,7 +1613,7 @@
         <v>80227</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>2</v>
       </c>
@@ -1621,7 +1621,7 @@
         <v>80.227000000000004</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>3</v>
       </c>
@@ -1641,7 +1641,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>9</v>
       </c>
@@ -1661,7 +1661,7 @@
         <v>1.0730500000000001</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>10</v>
       </c>
@@ -1681,7 +1681,7 @@
         <v>3.1891099999999999</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>11</v>
       </c>
@@ -1701,7 +1701,7 @@
         <v>2.1160600000000001</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>12</v>
       </c>
@@ -1721,7 +1721,7 @@
         <v>1.7172345</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>13</v>
       </c>
@@ -1741,7 +1741,7 @@
         <v>1.1823325</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>14</v>
       </c>
@@ -1761,7 +1761,7 @@
         <v>2.2163900000000001</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>15</v>
       </c>
@@ -1781,7 +1781,7 @@
         <v>1.0340575000000001</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>16</v>
       </c>
@@ -1801,7 +1801,7 @@
         <v>0.55230017083480154</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>17</v>
       </c>
@@ -1821,7 +1821,7 @@
         <v>0.30503547870415093</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>18</v>
       </c>
@@ -1841,7 +1841,7 @@
         <v>1.5431900000000001</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>19</v>
       </c>
@@ -1861,7 +1861,7 @@
         <v>1.6724011718749998</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>20</v>
       </c>
@@ -1881,7 +1881,7 @@
         <v>1.8053749999999997</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>21</v>
       </c>
@@ -1901,7 +1901,7 @@
         <v>1.6336613091754901</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>22</v>
       </c>
@@ -1921,7 +1921,7 @@
         <v>0.41755000000000009</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>23</v>
       </c>
@@ -1941,7 +1941,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>27</v>
       </c>
@@ -1951,7 +1951,7 @@
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>1</v>
       </c>
@@ -1959,7 +1959,7 @@
         <v>79721</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>2</v>
       </c>
@@ -1967,7 +1967,7 @@
         <v>79.721000000000004</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>3</v>
       </c>
@@ -1987,7 +1987,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>9</v>
       </c>
@@ -2007,7 +2007,7 @@
         <v>1.07117</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>10</v>
       </c>
@@ -2027,7 +2027,7 @@
         <v>2.86226</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>11</v>
       </c>
@@ -2047,7 +2047,7 @@
         <v>1.7910900000000001</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>12</v>
       </c>
@@ -2067,7 +2067,7 @@
         <v>1.7929461006289309</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>13</v>
       </c>
@@ -2087,7 +2087,7 @@
         <v>1.3027</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>14</v>
       </c>
@@ -2107,7 +2107,7 @@
         <v>2.2966700000000002</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>15</v>
       </c>
@@ -2127,7 +2127,7 @@
         <v>0.99397000000000024</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>16</v>
       </c>
@@ -2147,7 +2147,7 @@
         <v>0.55594396142206692</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>17</v>
       </c>
@@ -2167,7 +2167,7 @@
         <v>0.30907368824166059</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>18</v>
       </c>
@@ -2187,7 +2187,7 @@
         <v>1.69441</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>19</v>
       </c>
@@ -2207,7 +2207,7 @@
         <v>1.7631990551181103</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>20</v>
       </c>
@@ -2227,7 +2227,7 @@
         <v>1.84561</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>21</v>
       </c>
@@ -2247,7 +2247,7 @@
         <v>1.7081489522094975</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>22</v>
       </c>
@@ -2267,7 +2267,7 @@
         <v>0.51367999999999991</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>23</v>
       </c>
@@ -2287,7 +2287,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>28</v>
       </c>
@@ -2297,7 +2297,7 @@
       <c r="E96" s="1"/>
       <c r="F96" s="1"/>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>1</v>
       </c>
@@ -2305,7 +2305,7 @@
         <v>80229</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>2</v>
       </c>
@@ -2313,7 +2313,7 @@
         <v>80.228999999999999</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>3</v>
       </c>
@@ -2333,7 +2333,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>9</v>
       </c>
@@ -2353,7 +2353,7 @@
         <v>1.05193</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>10</v>
       </c>
@@ -2373,7 +2373,7 @@
         <v>3.0861200000000002</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>11</v>
       </c>
@@ -2393,7 +2393,7 @@
         <v>2.0341900000000002</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
         <v>12</v>
       </c>
@@ -2413,7 +2413,7 @@
         <v>1.755481125</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
         <v>13</v>
       </c>
@@ -2433,7 +2433,7 @@
         <v>1.2359</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
         <v>14</v>
       </c>
@@ -2453,7 +2453,7 @@
         <v>2.1860149999999998</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>15</v>
       </c>
@@ -2473,7 +2473,7 @@
         <v>0.95011499999999982</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
         <v>16</v>
       </c>
@@ -2493,7 +2493,7 @@
         <v>0.55317407920053085</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
         <v>17</v>
       </c>
@@ -2513,7 +2513,7 @@
         <v>0.30600156189935518</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
         <v>18</v>
       </c>
@@ -2533,7 +2533,7 @@
         <v>1.67998</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
         <v>19</v>
       </c>
@@ -2553,7 +2553,7 @@
         <v>1.71722703125</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>20</v>
       </c>
@@ -2573,7 +2573,7 @@
         <v>1.8396949999999999</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
         <v>21</v>
       </c>
@@ -2593,7 +2593,7 @@
         <v>1.6705172561425568</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
         <v>22</v>
       </c>
@@ -2613,7 +2613,7 @@
         <v>0.48413499999999998</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
         <v>23</v>
       </c>
@@ -2633,7 +2633,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>29</v>
       </c>
@@ -2643,7 +2643,7 @@
       <c r="E115" s="1"/>
       <c r="F115" s="1"/>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
         <v>1</v>
       </c>
@@ -2651,7 +2651,7 @@
         <v>81733</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
         <v>2</v>
       </c>
@@ -2659,7 +2659,7 @@
         <v>81.733000000000004</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>3</v>
       </c>
@@ -2679,7 +2679,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
         <v>9</v>
       </c>
@@ -2699,7 +2699,7 @@
         <v>0.96543000000000001</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
         <v>10</v>
       </c>
@@ -2719,7 +2719,7 @@
         <v>3.7703799999999998</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
         <v>11</v>
       </c>
@@ -2739,7 +2739,7 @@
         <v>2.8049499999999998</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
         <v>12</v>
       </c>
@@ -2759,7 +2759,7 @@
         <v>1.767979018404908</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
         <v>13</v>
       </c>
@@ -2779,7 +2779,7 @@
         <v>1.3206599999999999</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
         <v>14</v>
       </c>
@@ -2799,7 +2799,7 @@
         <v>2.0493700000000001</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
         <v>15</v>
       </c>
@@ -2819,7 +2819,7 @@
         <v>0.72871000000000019</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
         <v>16</v>
       </c>
@@ -2839,7 +2839,7 @@
         <v>0.64986507357744705</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
         <v>17</v>
       </c>
@@ -2859,7 +2859,7 @@
         <v>0.42232461385582071</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
         <v>18</v>
       </c>
@@ -2879,7 +2879,7 @@
         <v>1.61249</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
         <v>19</v>
       </c>
@@ -2899,7 +2899,7 @@
         <v>1.679380610687023</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
         <v>20</v>
       </c>
@@ -2919,7 +2919,7 @@
         <v>1.9234249999999997</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
         <v>21</v>
       </c>
@@ -2939,7 +2939,7 @@
         <v>1.6660453145107992</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
         <v>22</v>
       </c>
@@ -2959,7 +2959,7 @@
         <v>0.39964</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
         <v>23</v>
       </c>
@@ -2979,7 +2979,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>30</v>
       </c>
@@ -2989,7 +2989,7 @@
       <c r="E134" s="1"/>
       <c r="F134" s="1"/>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
         <v>1</v>
       </c>
@@ -2997,7 +2997,7 @@
         <v>79217</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
         <v>2</v>
       </c>
@@ -3005,7 +3005,7 @@
         <v>79.216999999999999</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>3</v>
       </c>
@@ -3025,7 +3025,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
         <v>9</v>
       </c>
@@ -3045,7 +3045,7 @@
         <v>1.0450600000000001</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
         <v>10</v>
       </c>
@@ -3065,7 +3065,7 @@
         <v>2.9405700000000001</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
         <v>11</v>
       </c>
@@ -3085,7 +3085,7 @@
         <v>1.89551</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
         <v>12</v>
       </c>
@@ -3105,7 +3105,7 @@
         <v>1.7821913924050634</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
         <v>13</v>
       </c>
@@ -3125,7 +3125,7 @@
         <v>1.2654874999999999</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
         <v>14</v>
       </c>
@@ -3145,7 +3145,7 @@
         <v>2.2202899999999999</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
         <v>15</v>
       </c>
@@ -3165,7 +3165,7 @@
         <v>0.9548025</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
         <v>16</v>
       </c>
@@ -3185,7 +3185,7 @@
         <v>0.56839807066606252</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
         <v>17</v>
       </c>
@@ -3205,7 +3205,7 @@
         <v>0.32307636673690215</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
         <v>18</v>
       </c>
@@ -3225,7 +3225,7 @@
         <v>1.7123300000000001</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
         <v>19</v>
       </c>
@@ -3245,7 +3245,7 @@
         <v>1.7459276984126986</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
         <v>20</v>
       </c>
@@ -3265,7 +3265,7 @@
         <v>1.8653449999999998</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
         <v>21</v>
       </c>
@@ -3285,7 +3285,7 @@
         <v>1.6932356103952211</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
         <v>22</v>
       </c>
@@ -3305,7 +3305,7 @@
         <v>0.48381999999999992</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
         <v>23</v>
       </c>
@@ -3335,25 +3335,25 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="44.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="44.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -3376,7 +3376,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>33</v>
       </c>
@@ -3396,7 +3396,7 @@
         <v>0.96475</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>34</v>
       </c>
@@ -3416,7 +3416,7 @@
         <v>3.7703799999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
@@ -3436,7 +3436,7 @@
         <v>2.8056299999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>35</v>
       </c>
@@ -3459,7 +3459,7 @@
         <v>1.7334609283508535</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
@@ -3479,7 +3479,7 @@
         <v>1.2613862499999999</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
@@ -3499,7 +3499,7 @@
         <v>2.119399375</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>15</v>
       </c>
@@ -3519,7 +3519,7 @@
         <v>0.85801312500000004</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>36</v>
       </c>
@@ -3542,7 +3542,7 @@
         <v>6.3342287879936024E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>37</v>
       </c>
@@ -3565,7 +3565,7 @@
         <v>4.0122454338646909E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>38</v>
       </c>
@@ -3588,7 +3588,7 @@
         <v>1.6294887500000002</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>39</v>
       </c>
@@ -3611,7 +3611,7 @@
         <v>1.7469792715347001</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>40</v>
       </c>
@@ -3634,7 +3634,7 @@
         <v>1.7538515094339622</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>41</v>
       </c>
@@ -3657,7 +3657,7 @@
         <v>1.7324125617705812</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>22</v>
       </c>
@@ -3677,7 +3677,7 @@
         <v>3.2478446202531708E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>42</v>
       </c>
@@ -3697,7 +3697,7 @@
         <v>139.17611101543332</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>43</v>
       </c>
@@ -3717,7 +3717,7 @@
         <v>132.31060959999999</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>44</v>
       </c>
@@ -3740,7 +3740,7 @@
         <v>131.80326496145454</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>45</v>
       </c>
@@ -3763,7 +3763,7 @@
         <v>144.50222911128836</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>46</v>
       </c>
@@ -3786,7 +3786,7 @@
         <v>4.0582247987091868</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G24">
         <f>G17-(G3*B6)</f>
         <v>61.718263015433322</v>

--- a/Tablet/Stories/Action5/Results.xlsx
+++ b/Tablet/Stories/Action5/Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ALARCOS\Desktop\InstagramEnergyConsumption\Tablet\Stories\Action5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D16301A-BBBC-4518-967B-5642FC45A363}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{192B9DC8-DBE0-491A-8227-B3F923EA82DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -162,19 +162,19 @@
     <t>GeometricMean (w) (Time in s)</t>
   </si>
   <si>
-    <t>Mean - Consumption (w/s)</t>
-  </si>
-  <si>
-    <t>Median - Consumption (w/s)</t>
-  </si>
-  <si>
-    <t>Min Measurement Consumption(w/s) (Time in s)</t>
-  </si>
-  <si>
-    <t>Max Measurement Consumption(w/s) (Time in s)</t>
-  </si>
-  <si>
-    <t>SD Measurement Consumption(w/s) (Time in s)</t>
+    <t>Mean - Consumption (w*s)</t>
+  </si>
+  <si>
+    <t>Median - Consumption (w*s)</t>
+  </si>
+  <si>
+    <t>Min Measurement Consumption(w*s) (Time in s)</t>
+  </si>
+  <si>
+    <t>Max Measurement Consumption(w*s) (Time in s)</t>
+  </si>
+  <si>
+    <t>SD Measurement Consumption(w*s) (Time in s)</t>
   </si>
 </sst>
 </file>
@@ -3335,7 +3335,7 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
